--- a/biology/Zoologie/Cordylidae/Cordylidae.xlsx
+++ b/biology/Zoologie/Cordylidae/Cordylidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cordylidae sont une famille de sauriens. Elle a été créée par Robert Mertens en 1937.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cette famille se rencontrent en Afrique subsaharienne.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des lézards de taille plutôt faible (de 5 à 7 centimètres sans la queue en général) mais certaines espèces peuvent atteindre une vingtaine de centimètres. Ils ont des écailles très développées, et mènent une vie terrestre dans des milieux plutôt arides, où ils se cachent dans des crevasses et terriers (que certaines espèces creusent elles-mêmes). 
 Ce sont des insectivores qui consomment la plupart des insectes et autres invertébrés de taille adaptée, et certaines espèces consomment également des végétaux. 
@@ -576,9 +592,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (29 juin 2012)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (29 juin 2012) :
 Chamaesaura Schneider 1801
 Cordylus Laurenti, 1768
 Hemicordylus Smith, 1838
@@ -616,7 +634,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Mertens, 1937 : Reptilien und Amphibien aus dem südlichen Inner-Afrika. Abhandlungen der Senckenbergischen Naturforschenden Gesellschaft, Frankfurt,  vol. 435, p. 1–23.
 Stanley, Bauer, Jackman, Branch &amp; Le Fras Nortier Mouton, 2011 : Between a rock and a hard polytomy: Rapid radiation in the rupicolous girdled lizards (Squamata: Cordylidae). Molecular Phylogenetics and Evolution, vol. 58, no 1,  p. 53–70 (texte intégral).</t>
